--- a/bots/crawl_ch/output/electronics_2022-08-10.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-10.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1879,24 +1879,24 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3494233</t>
+          <t>3494865</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli</t>
+          <t>Varta Electronics CR2430 1er Bli</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1947,55 +1947,53 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3494865</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2005,7 +2003,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2015,58 +2013,60 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>3494233</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Varta Electronics CR2032 1er Bli</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2086,17 +2086,17 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2309,50 +2309,48 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4014527</t>
+          <t>6801740</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
+          <t>Duracell Batterien PLUS AA/LR6 12 Stück</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>4</v>
-      </c>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>29.85</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.60/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2362,7 +2360,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2377,29 +2375,29 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AA/LR6 12 Stück 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6753554</t>
+          <t>6986541</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 4 Stück</t>
+          <t>Duracell Batterie (CR2032, 4 Stück)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-4-stueck/p/6753554</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2407,11 +2405,9 @@
           <t>4ST</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2420,12 +2416,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2.99/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2435,7 +2431,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2445,58 +2441,60 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 4 Stück 11.95 Schweizer Franken</t>
+          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6801740</t>
+          <t>4014527</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 12 Stück</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>1.60/1ST</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2506,7 +2504,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2521,29 +2519,29 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 12 Stück 29.85 Schweizer Franken</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6986541</t>
+          <t>6753554</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück)</t>
+          <t>Duracell Batterien Optimum AA/LR6 4 Stück</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-4-stueck/p/6753554</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2551,9 +2549,11 @@
           <t>4ST</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2562,12 +2562,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>2.99/1ST</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2587,60 +2587,58 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AA/LR6 4 Stück 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3494130</t>
+          <t>6801782</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli</t>
+          <t>Duracell Batterien PLUS AAA/LR03 12 Stück</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>29.85</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2650,7 +2648,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2660,46 +2658,46 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3494133</t>
+          <t>3494130</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli</t>
+          <t>Varta Longlife Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2708,12 +2706,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1.87/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2723,7 +2721,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2738,53 +2736,55 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6801782</t>
+          <t>3494133</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 12 Stück</t>
+          <t>Varta Longlife Power AA 8er Bli</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>8ST</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>1.87/1ST</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2804,17 +2804,17 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3586,39 +3586,41 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6298048</t>
+          <t>6973029</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel</t>
+          <t>Severin Tischgrill PG 8565</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Electrolux</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>99.95</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -3627,51 +3629,49 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
+          <t>Severin Tischgrill PG 8565 99.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6973029</t>
+          <t>6298048</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565</t>
+          <t>Electrolux E201S Classic Staubbeutel</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Electrolux</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>99.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -3680,17 +3680,17 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565 99.95 Schweizer Franken</t>
+          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3741,34 +3741,36 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4096751</t>
+          <t>3494131</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
+          <t>Varta Longlife Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>3</v>
+      </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3777,12 +3779,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3792,7 +3794,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3802,39 +3804,39 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3494063</t>
+          <t>4096751</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>6ST</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3848,12 +3850,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>3.98/1ST</t>
+          <t>2.16/1ST</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3863,7 +3865,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3873,141 +3875,139 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4942594</t>
+          <t>3494063</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz</t>
+          <t>Varta Longlife Power C 2er Bli</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>19.95</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>3.98/1ST</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
+          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3494131</t>
+          <t>4942594</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli</t>
+          <t>Skross Adapter World-Schweiz</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
+          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4233,34 +4233,36 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3494007</t>
+          <t>4119046</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli</t>
+          <t>Varta Ultra Lithium AA 4er Bli</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -4269,12 +4271,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>3.74/1ST</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4284,7 +4286,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4294,107 +4296,85 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4119046</t>
+          <t>6266870</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>3.74/1ST</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6266870</t>
+          <t>5872164</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
+          <t>Satrap Tischventilator Venti 2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -4404,12 +4384,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -4418,49 +4398,51 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
+          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5872164</t>
+          <t>6007534</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2</t>
+          <t>Trend USB-Stick 8 GB</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -4474,46 +4456,44 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6007534</t>
+          <t>5831402</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB</t>
+          <t>Satrap Mikrowelle Micro M2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -4522,68 +4502,88 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
+          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5831402</t>
+          <t>3494007</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2</t>
+          <t>Varta Longlife Power D 2er Bli</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>49.95</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5374,7 +5374,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5839,7 +5839,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:14</t>
+          <t>2022-08-10 20:57:52</t>
         </is>
       </c>
     </row>
